--- a/doc/Process/3-软件迭代阶段/3-软件第三次迭代(v0.3)/SprintBacklogs-0.3.xlsx
+++ b/doc/Process/3-软件迭代阶段/3-软件第三次迭代(v0.3)/SprintBacklogs-0.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8F9C5482-E07E-944E-8A7A-58309A480B79}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{72F3F8B9-0671-F14A-AA19-C737C704D3C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,23 +146,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>C1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
+    <t>C01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
   </si>
 </sst>
 </file>
@@ -201,18 +201,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -242,7 +236,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>

--- a/doc/Process/3-软件迭代阶段/3-软件第三次迭代(v0.3)/SprintBacklogs-0.3.xlsx
+++ b/doc/Process/3-软件迭代阶段/3-软件第三次迭代(v0.3)/SprintBacklogs-0.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{72F3F8B9-0671-F14A-AA19-C737C704D3C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BB36C1B-4679-084E-BDEC-0C630FD1EC3E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>Roles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -163,6 +167,33 @@
   </si>
   <si>
     <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>聊天记录</t>
+    <rPh sb="0" eb="1">
+      <t>liao tian ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传入显示</t>
+    <rPh sb="0" eb="2">
+      <t>wen jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输语音消息</t>
+    <rPh sb="0" eb="2">
+      <t>cuan s</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C08</t>
   </si>
 </sst>
 </file>
@@ -577,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -623,16 +654,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E7" si="0">F2*H2</f>
@@ -642,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -650,16 +681,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
@@ -669,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -677,16 +708,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
@@ -696,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -704,16 +735,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
@@ -723,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -731,16 +762,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
@@ -750,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
@@ -758,16 +789,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
@@ -777,48 +808,101 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8" si="1">F8*H8</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
-        <f>COUNTIF(A2:A7,"&lt;&gt;0")</f>
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2">
-        <f>SUM(E2:E7)</f>
-        <v>17</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="C10" s="2">
+        <f>COUNTIF(A2:A9,"&lt;&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <f>SUM(E2:E9)</f>
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1级,2级,3级,4级,5级"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/Process/3-软件迭代阶段/3-软件第三次迭代(v0.3)/SprintBacklogs-0.3.xlsx
+++ b/doc/Process/3-软件迭代阶段/3-软件第三次迭代(v0.3)/SprintBacklogs-0.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BB36C1B-4679-084E-BDEC-0C630FD1EC3E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E3E4B6F6-3447-554A-B8F4-19E18D3D5984}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,6 +194,23 @@
   </si>
   <si>
     <t>C08</t>
+  </si>
+  <si>
+    <t>登陆</t>
+    <rPh sb="0" eb="2">
+      <t>deng l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>登出用户</t>
+    <rPh sb="0" eb="1">
+      <t>deng chu yong hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -608,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -846,63 +863,89 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2">
-        <f>COUNTIF(A2:A9,"&lt;&gt;0")</f>
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C11" s="2">
+        <f>COUNTIF(A2:A10,"&lt;&gt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2">
-        <f>SUM(E2:E9)</f>
-        <v>21</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="E11" s="2">
+        <f>SUM(E2:E10)</f>
+        <v>22</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1级,2级,3级,4级,5级"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/Process/3-软件迭代阶段/3-软件第三次迭代(v0.3)/SprintBacklogs-0.3.xlsx
+++ b/doc/Process/3-软件迭代阶段/3-软件第三次迭代(v0.3)/SprintBacklogs-0.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/doc/Process/3-软件迭代阶段/3-软件第三次迭代(v0.3)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E3E4B6F6-3447-554A-B8F4-19E18D3D5984}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A891DC05-4CAB-EB4F-B031-D7A4C3524D38}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,19 +196,19 @@
     <t>C08</t>
   </si>
   <si>
-    <t>登陆</t>
-    <rPh sb="0" eb="2">
-      <t>deng l</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C09</t>
   </si>
   <si>
     <t>登出用户</t>
     <rPh sb="0" eb="1">
       <t>deng chu yong hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <rPh sb="0" eb="2">
+      <t>yong hu deng</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -628,7 +628,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -863,10 +863,10 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>19</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>31</v>

--- a/doc/Process/3-软件迭代阶段/3-软件第三次迭代(v0.3)/SprintBacklogs-0.3.xlsx
+++ b/doc/Process/3-软件迭代阶段/3-软件第三次迭代(v0.3)/SprintBacklogs-0.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/doc/Process/3-软件迭代阶段/3-软件第三次迭代(v0.3)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/doc/Process/3-软件迭代阶段/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A891DC05-4CAB-EB4F-B031-D7A4C3524D38}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CEDC2B9D-558B-3B43-9534-A684CE5CC82F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,13 +143,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>语音输入转文字</t>
-    <rPh sb="0" eb="2">
-      <t>yu yi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,9 +189,6 @@
     <t>C08</t>
   </si>
   <si>
-    <t>C09</t>
-  </si>
-  <si>
     <t>登出用户</t>
     <rPh sb="0" eb="1">
       <t>deng chu yong hu</t>
@@ -207,7 +197,7 @@
   </si>
   <si>
     <t>用户登录</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="0" eb="1">
       <t>yong hu deng</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -625,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -671,7 +661,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -683,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E7" si="0">F2*H2</f>
+        <f t="shared" ref="E2:E6" si="0">F2*H2</f>
         <v>4</v>
       </c>
       <c r="F2" s="1">
@@ -698,7 +688,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -725,7 +715,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -752,7 +742,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -779,7 +769,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -806,26 +796,26 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E7" si="1">F7*H7</f>
         <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -833,23 +823,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8" si="1">F8*H8</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
@@ -860,92 +849,66 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <f>COUNTIF(A2:A9,"&lt;&gt;0")</f>
         <v>8</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2">
-        <f>COUNTIF(A2:A10,"&lt;&gt;0")</f>
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
-        <f>SUM(E2:E10)</f>
-        <v>22</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="E10" s="2">
+        <f>SUM(E2:E9)</f>
+        <v>20</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1级,2级,3级,4级,5级"</formula1>
     </dataValidation>
   </dataValidations>
